--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-default-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.8884615384615384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5021645021645021</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6089238845144357</v>
+        <v>0.9409368635437881</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7947110860154339</v>
+        <v>0.9763034067381894</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.927536231884058</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5565217391304348</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8744024091850179</v>
+        <v>0.9994729907773386</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9927007299270073</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.591304347826087</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7411444141689373</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9698109640831758</v>
+        <v>0.9829867674858224</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.976</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5304347826086957</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6873239436619718</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9106049149338373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4521739130434783</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6227544910179641</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9209640831758035</v>
+        <v>0.9958034026465028</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9339140590288796</v>
+        <v>0.9594604888525862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5265198569546395</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6711597814552704</v>
+        <v>0.9788533666418797</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8940986914786537</v>
+        <v>0.9909133135295708</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-default-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8884615384615384</v>
+        <v>0.7638376383763837</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9409368635437881</v>
+        <v>0.8661087866108786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9763034067381894</v>
+        <v>0.979387309550353</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.9672897196261683</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.968421052631579</v>
+        <v>0.983372921615202</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994729907773386</v>
+        <v>0.9967019695280566</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9497716894977168</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9742388758782201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9829867674858224</v>
+        <v>0.990163972500929</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978308026030369</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9975903614457832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9958034026465028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9594604888525862</v>
+        <v>0.9352182710385153</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9788533666418797</v>
+        <v>0.9642621891100168</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9909133135295708</v>
+        <v>0.9932506503158678</v>
       </c>
     </row>
   </sheetData>
